--- a/biology/Zoologie/Globicephalinae/Globicephalinae.xlsx
+++ b/biology/Zoologie/Globicephalinae/Globicephalinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Globicephalinae sont une sous-famille de cétacés à dents. des mammifères marins carnivores.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les globicéphalinés (étymologiquement « [dauphins] à tête ronde ») se distinguent par leur rostre arrondi. Les taxons les plus proches sont celui des Orcininae, contenant les genres Orcaella et Orcinus (les orques), et celui des Orcaellinae. Des études génétiques récentes suggèrent toutefois que ces deux sous-familles seraient à ranger au sein des Globicephalinae, formant ensemble un clade relativement bien distinct du reste des delphinidés[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les globicéphalinés (étymologiquement « [dauphins] à tête ronde ») se distinguent par leur rostre arrondi. Les taxons les plus proches sont celui des Orcininae, contenant les genres Orcaella et Orcinus (les orques), et celui des Orcaellinae. Des études génétiques récentes suggèrent toutefois que ces deux sous-familles seraient à ranger au sein des Globicephalinae, formant ensemble un clade relativement bien distinct du reste des delphinidés. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Feresa attenuata
